--- a/dataset/data realisasi/fungsi/realisasi_dummy_fungsi 0221.xlsx
+++ b/dataset/data realisasi/fungsi/realisasi_dummy_fungsi 0221.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telkomuniversityofficial-my.sharepoint.com/personal/arvaadwitya_365_telkomuniversity_ac_id/Documents/Dokumen/Arva Adwitya/Arva/Kuliah/PKL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Computer Science\PKL\Pemeriksa Ketepatan Waktu Update\dataset\data realisasi\fungsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{041535E0-F7EB-4E67-808C-C9CF4444BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E16C7B7-39E6-4DAD-BAB4-6253F5B3AB65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EDBEED-FB3E-4287-B30D-0DB23AADFD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{7D673CD0-97D5-4D54-9354-D17F6BD8B582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D673CD0-97D5-4D54-9354-D17F6BD8B582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>_time</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C3CCC4-E55C-4D98-92C9-91767D6BE719}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +446,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
